--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1604.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1604.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187100385670255</v>
+        <v>0.6045094728469849</v>
       </c>
       <c r="B1">
-        <v>2.318453316650029</v>
+        <v>1.482218146324158</v>
       </c>
       <c r="C1">
-        <v>5.202538240833286</v>
+        <v>5.823262691497803</v>
       </c>
       <c r="D1">
-        <v>2.303698304016328</v>
+        <v>2.178108930587769</v>
       </c>
       <c r="E1">
-        <v>1.031612291737021</v>
+        <v>1.423992156982422</v>
       </c>
     </row>
   </sheetData>
